--- a/Monitoring/TimeMonitoring.xlsx
+++ b/Monitoring/TimeMonitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/NoteDeck/Monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B78C26-CBC3-A949-A75B-5822F812226F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FD42EC-46E0-9446-AA4F-95AF4D62EBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="181">
   <si>
     <t>Subject</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>KNO</t>
   </si>
 </sst>
 </file>
@@ -839,8 +842,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="C4:K5" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="C4:K6" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{58F4A1E6-FDF8-874F-B2B6-907AD1BEEF45}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{F2ACE730-A243-3942-9BEE-4173EF12B5D6}" name="Week" dataDxfId="9">
@@ -2483,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF52592-4B18-4446-8693-73AD33C35A54}">
-  <dimension ref="C4:K5"/>
+  <dimension ref="C4:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2534,23 +2537,43 @@
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" s="3">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
         <v>22-2025</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <v>45809</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>22-2025</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E6" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
       <formula1>SubjectList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
       <formula1>LitID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H6" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
       <formula1>Topics</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitoring/TimeMonitoring.xlsx
+++ b/Monitoring/TimeMonitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/NoteDeck/Monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FD42EC-46E0-9446-AA4F-95AF4D62EBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5909AA-FD15-B344-96E0-802A54BA3DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="182">
   <si>
     <t>Subject</t>
   </si>
@@ -605,6 +605,9 @@
   </si>
   <si>
     <t>KNO</t>
+  </si>
+  <si>
+    <t>GA</t>
   </si>
 </sst>
 </file>
@@ -842,8 +845,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="C4:K6" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K8" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="C4:K8" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{58F4A1E6-FDF8-874F-B2B6-907AD1BEEF45}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{F2ACE730-A243-3942-9BEE-4173EF12B5D6}" name="Week" dataDxfId="9">
@@ -2486,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF52592-4B18-4446-8693-73AD33C35A54}">
-  <dimension ref="C4:K6"/>
+  <dimension ref="C4:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2565,15 +2568,45 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>45809</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>22-2025</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <v>45809</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>22-2025</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E6" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E8" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
       <formula1>SubjectList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F8" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
       <formula1>LitID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H6" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H8" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
       <formula1>Topics</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitoring/TimeMonitoring.xlsx
+++ b/Monitoring/TimeMonitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/NoteDeck/Monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5909AA-FD15-B344-96E0-802A54BA3DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D7D245-1844-4345-B5E2-70A4D96F5280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="185">
   <si>
     <t>Subject</t>
   </si>
@@ -608,6 +608,15 @@
   </si>
   <si>
     <t>GA</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>AT</t>
   </si>
 </sst>
 </file>
@@ -845,8 +854,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K8" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="C4:K8" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="C4:K11" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{58F4A1E6-FDF8-874F-B2B6-907AD1BEEF45}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{F2ACE730-A243-3942-9BEE-4173EF12B5D6}" name="Week" dataDxfId="9">
@@ -2489,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF52592-4B18-4446-8693-73AD33C35A54}">
-  <dimension ref="C4:K8"/>
+  <dimension ref="C4:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2549,6 +2558,9 @@
       <c r="E5" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="J5" s="4">
         <v>5.5555555555555552E-2</v>
       </c>
@@ -2564,6 +2576,9 @@
       <c r="E6" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="J6" s="4">
         <v>5.5555555555555552E-2</v>
       </c>
@@ -2579,6 +2594,9 @@
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="J7" s="4">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -2594,19 +2612,76 @@
       <c r="E8" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="J8" s="4">
-        <v>0.13541666666666666</v>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
+        <v>45813</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>23-2025</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>45814</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>23-2025</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>45816</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>23-2025</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E8" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E11" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
       <formula1>SubjectList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F8" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F11" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
       <formula1>LitID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H8" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H11" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
       <formula1>Topics</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitoring/TimeMonitoring.xlsx
+++ b/Monitoring/TimeMonitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/NoteDeck/Monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D7D245-1844-4345-B5E2-70A4D96F5280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9972FFC-E5D5-2147-936F-9365385B866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="185">
   <si>
     <t>Subject</t>
   </si>
@@ -854,8 +854,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="C4:K11" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K15" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="C4:K15" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{58F4A1E6-FDF8-874F-B2B6-907AD1BEEF45}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{F2ACE730-A243-3942-9BEE-4173EF12B5D6}" name="Week" dataDxfId="9">
@@ -2498,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF52592-4B18-4446-8693-73AD33C35A54}">
-  <dimension ref="C4:K11"/>
+  <dimension ref="C4:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2673,15 +2673,87 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>45815</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>23-2025</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
+        <v>45816</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>23-2025</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>45817</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>24-2025</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
+        <v>45817</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>24-2025</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="4">
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E11" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E15" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
       <formula1>SubjectList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F11" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F15" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
       <formula1>LitID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H11" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H15" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
       <formula1>Topics</formula1>
     </dataValidation>
   </dataValidations>

--- a/Monitoring/TimeMonitoring.xlsx
+++ b/Monitoring/TimeMonitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/NoteDeck/Monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9972FFC-E5D5-2147-936F-9365385B866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEF6667-C9E6-6D4B-9EBA-FE24DD4764B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="186">
   <si>
     <t>Subject</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>AT</t>
+  </si>
+  <si>
+    <t>STUD</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -690,6 +693,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -854,8 +858,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K15" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="C4:K15" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}" name="tbl_MONITORING" displayName="tbl_MONITORING" ref="C4:K19" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="C4:K19" xr:uid="{F8812F56-DE6D-1C4F-8324-3BEF4B9785F9}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{58F4A1E6-FDF8-874F-B2B6-907AD1BEEF45}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{F2ACE730-A243-3942-9BEE-4173EF12B5D6}" name="Week" dataDxfId="9">
@@ -2498,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF52592-4B18-4446-8693-73AD33C35A54}">
-  <dimension ref="C4:K15"/>
+  <dimension ref="C4:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2745,15 +2749,87 @@
         <v>6.25E-2</v>
       </c>
     </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>45817</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>24-2025</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="3">
+        <v>45817</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>24-2025</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <v>45818</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>24-2025</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="4">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="3">
+        <v>45818</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>TEXT(WEEKNUM(tbl_MONITORING[[#This Row],[Date]], 2), "00") &amp; "-" &amp; YEAR(tbl_MONITORING[[#This Row],[Date]])</f>
+        <v>24-2025</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E15" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E19" xr:uid="{61279C5F-07E8-7B46-9D7F-519ECF1BB30D}">
       <formula1>SubjectList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F15" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F19" xr:uid="{CAF62210-090A-B84A-96A8-13BE2B36FD85}">
       <formula1>LitID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H15" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H19" xr:uid="{37CCB59F-29DE-9941-815F-B55E99067E0F}">
       <formula1>Topics</formula1>
     </dataValidation>
   </dataValidations>
